--- a/table_report_finale.xlsx
+++ b/table_report_finale.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gianmarco/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matteo\CLionProjects\ReportFinaleASD\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE260154-D830-4F7F-8969-924EF19E3828}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11052" windowHeight="9180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
     <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
     <sheet name="Foglio3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="105">
   <si>
     <t>Mergesort</t>
   </si>
@@ -86,6 +87,264 @@
   </si>
   <si>
     <t>INSIEME CASUALE</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>4999</t>
+  </si>
+  <si>
+    <t>0.015625</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>0.125000</t>
+  </si>
+  <si>
+    <t>9999</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>0.468750</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0.046875</t>
+  </si>
+  <si>
+    <t>12502500</t>
+  </si>
+  <si>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>0.15625</t>
+  </si>
+  <si>
+    <t>50005000</t>
+  </si>
+  <si>
+    <t>0.078125</t>
+  </si>
+  <si>
+    <t>0.609375</t>
+  </si>
+  <si>
+    <t>200010000</t>
+  </si>
+  <si>
+    <t>0.312500</t>
+  </si>
+  <si>
+    <t>1250025000</t>
+  </si>
+  <si>
+    <t>57846</t>
+  </si>
+  <si>
+    <t>131695</t>
+  </si>
+  <si>
+    <t>139243</t>
+  </si>
+  <si>
+    <t>60402</t>
+  </si>
+  <si>
+    <t>131511</t>
+  </si>
+  <si>
+    <t>312877</t>
+  </si>
+  <si>
+    <t>128691</t>
+  </si>
+  <si>
+    <t>304599</t>
+  </si>
+  <si>
+    <t>125704</t>
+  </si>
+  <si>
+    <t>284333</t>
+  </si>
+  <si>
+    <t>130918</t>
+  </si>
+  <si>
+    <t>298404</t>
+  </si>
+  <si>
+    <t>363645</t>
+  </si>
+  <si>
+    <t>848303</t>
+  </si>
+  <si>
+    <t>354762</t>
+  </si>
+  <si>
+    <t>828537</t>
+  </si>
+  <si>
+    <t>350253</t>
+  </si>
+  <si>
+    <t>773891</t>
+  </si>
+  <si>
+    <t>361086</t>
+  </si>
+  <si>
+    <t>812497</t>
+  </si>
+  <si>
+    <t>9398482</t>
+  </si>
+  <si>
+    <t>9167</t>
+  </si>
+  <si>
+    <t>12497501</t>
+  </si>
+  <si>
+    <t>0.031250</t>
+  </si>
+  <si>
+    <t>44552</t>
+  </si>
+  <si>
+    <t>14802</t>
+  </si>
+  <si>
+    <t>37549752</t>
+  </si>
+  <si>
+    <t>19581</t>
+  </si>
+  <si>
+    <t>0.093750</t>
+  </si>
+  <si>
+    <t>49995001</t>
+  </si>
+  <si>
+    <t>114945</t>
+  </si>
+  <si>
+    <t>31216</t>
+  </si>
+  <si>
+    <t>150120680</t>
+  </si>
+  <si>
+    <t>41324</t>
+  </si>
+  <si>
+    <t>0.484375</t>
+  </si>
+  <si>
+    <t>210907</t>
+  </si>
+  <si>
+    <t>68540</t>
+  </si>
+  <si>
+    <t>1250024997</t>
+  </si>
+  <si>
+    <t>200009920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.359375 </t>
+  </si>
+  <si>
+    <t>32004</t>
+  </si>
+  <si>
+    <t>123616</t>
+  </si>
+  <si>
+    <t>42355</t>
+  </si>
+  <si>
+    <t>29804</t>
+  </si>
+  <si>
+    <t>55153</t>
+  </si>
+  <si>
+    <t>69008</t>
+  </si>
+  <si>
+    <t>267232</t>
+  </si>
+  <si>
+    <t>92290</t>
+  </si>
+  <si>
+    <t>64608</t>
+  </si>
+  <si>
+    <t>120414</t>
+  </si>
+  <si>
+    <t>574464</t>
+  </si>
+  <si>
+    <t>148016</t>
+  </si>
+  <si>
+    <t>199499</t>
+  </si>
+  <si>
+    <t>139216</t>
+  </si>
+  <si>
+    <t>261028</t>
+  </si>
+  <si>
+    <t>718079</t>
+  </si>
+  <si>
+    <t>1568928</t>
+  </si>
+  <si>
+    <t>382512</t>
+  </si>
+  <si>
+    <t>547435</t>
+  </si>
+  <si>
+    <t>401952</t>
+  </si>
+  <si>
+    <t>597410</t>
+  </si>
+  <si>
+    <t>185970</t>
+  </si>
+  <si>
+    <t>2.953125</t>
+  </si>
+  <si>
+    <t>937822230</t>
+  </si>
+  <si>
+    <t>111414</t>
+  </si>
+  <si>
+    <t>2.250000</t>
   </si>
 </sst>
 </file>
@@ -245,7 +504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -293,6 +552,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -636,17 +919,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="148" workbookViewId="0">
-      <selection activeCell="Y35" sqref="Y35"/>
+    <sheetView tabSelected="1" topLeftCell="K2" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="148" workbookViewId="0">
+      <selection activeCell="U35" sqref="U35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.83203125" customWidth="1"/>
-    <col min="21" max="22" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -672,7 +958,7 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -698,7 +984,7 @@
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
@@ -726,7 +1012,7 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:25" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
@@ -766,7 +1052,7 @@
       <c r="W4" s="7"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9" t="s">
@@ -834,148 +1120,358 @@
       </c>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:25" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="16"/>
+      <c r="C6" s="21">
+        <v>124750</v>
+      </c>
+      <c r="D6" s="21">
+        <v>499</v>
+      </c>
+      <c r="E6" s="22">
+        <v>0</v>
+      </c>
+      <c r="F6" s="21">
+        <v>499500</v>
+      </c>
+      <c r="G6" s="21">
+        <v>999</v>
+      </c>
+      <c r="H6" s="22">
+        <v>0</v>
+      </c>
+      <c r="I6" s="21">
+        <v>1999000</v>
+      </c>
+      <c r="J6" s="21">
+        <v>1999</v>
+      </c>
+      <c r="K6" s="22">
+        <v>0</v>
+      </c>
+      <c r="L6" s="21">
+        <v>12497500</v>
+      </c>
+      <c r="M6" s="21">
+        <v>4999</v>
+      </c>
+      <c r="N6" s="22">
+        <v>0.3125</v>
+      </c>
+      <c r="O6" s="25">
+        <v>49995000</v>
+      </c>
+      <c r="P6" s="21">
+        <v>9999</v>
+      </c>
+      <c r="Q6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R6" s="25">
+        <v>199990000</v>
+      </c>
+      <c r="S6" s="25">
+        <v>19999</v>
+      </c>
+      <c r="T6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U6" s="25">
+        <v>1249975000</v>
+      </c>
+      <c r="V6" s="25">
+        <v>49999</v>
+      </c>
+      <c r="W6" s="28">
+        <v>2906250</v>
+      </c>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="16"/>
+      <c r="C7" s="21">
+        <v>499</v>
+      </c>
+      <c r="D7" s="21">
+        <v>500</v>
+      </c>
+      <c r="E7" s="22">
+        <v>0</v>
+      </c>
+      <c r="F7" s="21">
+        <v>999</v>
+      </c>
+      <c r="G7" s="21">
+        <v>1000</v>
+      </c>
+      <c r="H7" s="22">
+        <v>0</v>
+      </c>
+      <c r="I7" s="21">
+        <v>1999</v>
+      </c>
+      <c r="J7" s="21">
+        <v>2000</v>
+      </c>
+      <c r="K7" s="22">
+        <v>0</v>
+      </c>
+      <c r="L7" s="21">
+        <v>4999</v>
+      </c>
+      <c r="M7" s="21">
+        <v>5000</v>
+      </c>
+      <c r="N7" s="22">
+        <v>0</v>
+      </c>
+      <c r="O7" s="25">
+        <v>9999</v>
+      </c>
+      <c r="P7" s="21">
+        <v>10000</v>
+      </c>
+      <c r="Q7" s="22">
+        <v>0</v>
+      </c>
+      <c r="R7" s="25">
+        <v>19999</v>
+      </c>
+      <c r="S7" s="25">
+        <v>20000</v>
+      </c>
+      <c r="T7" s="22">
+        <v>0</v>
+      </c>
+      <c r="U7" s="25">
+        <v>49999</v>
+      </c>
+      <c r="V7" s="25">
+        <v>50000</v>
+      </c>
+      <c r="W7" s="27">
+        <v>0</v>
+      </c>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="16"/>
+      <c r="C8" s="21">
+        <v>2272</v>
+      </c>
+      <c r="D8" s="21">
+        <v>8976</v>
+      </c>
+      <c r="E8" s="22">
+        <v>0</v>
+      </c>
+      <c r="F8" s="21">
+        <v>5044</v>
+      </c>
+      <c r="G8" s="21">
+        <v>19952</v>
+      </c>
+      <c r="H8" s="22">
+        <v>0</v>
+      </c>
+      <c r="I8" s="21">
+        <v>11088</v>
+      </c>
+      <c r="J8" s="21">
+        <v>43904</v>
+      </c>
+      <c r="K8" s="22">
+        <v>0</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="S8" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="U8" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="V8" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="W8" s="16" t="s">
+        <v>19</v>
+      </c>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="16"/>
+      <c r="C9" s="21">
+        <v>2000</v>
+      </c>
+      <c r="D9" s="21">
+        <v>5103</v>
+      </c>
+      <c r="E9" s="22">
+        <v>0</v>
+      </c>
+      <c r="F9" s="21">
+        <v>4540</v>
+      </c>
+      <c r="G9" s="21">
+        <v>11207</v>
+      </c>
+      <c r="H9" s="22">
+        <v>0</v>
+      </c>
+      <c r="I9" s="21">
+        <v>10230</v>
+      </c>
+      <c r="J9" s="21">
+        <v>24299</v>
+      </c>
+      <c r="K9" s="22">
+        <v>0</v>
+      </c>
+      <c r="L9" s="21">
+        <v>27605</v>
+      </c>
+      <c r="M9" s="21">
+        <v>68431</v>
+      </c>
+      <c r="N9" s="22">
+        <v>0</v>
+      </c>
+      <c r="O9" s="25">
+        <v>60319</v>
+      </c>
+      <c r="P9" s="21">
+        <v>146955</v>
+      </c>
+      <c r="Q9" s="22">
+        <v>0</v>
+      </c>
+      <c r="R9" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="S9" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="U9" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="V9" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="W9" s="16" t="s">
+        <v>19</v>
+      </c>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="20"/>
+      <c r="C10" s="24">
+        <v>125187</v>
+      </c>
+      <c r="D10" s="24">
+        <v>500</v>
+      </c>
+      <c r="E10" s="23">
+        <v>0</v>
+      </c>
+      <c r="F10" s="24">
+        <v>500500</v>
+      </c>
+      <c r="G10" s="24">
+        <v>1000</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="24">
+        <v>2000920</v>
+      </c>
+      <c r="J10" s="24">
+        <v>2000</v>
+      </c>
+      <c r="K10" s="23">
+        <v>0</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q10" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="R10" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="S10" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="T10" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="U10" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="V10" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:25" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1001,7 +1497,7 @@
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
@@ -1029,7 +1525,7 @@
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="1:25" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3" t="s">
@@ -1069,7 +1565,7 @@
       <c r="W13" s="7"/>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="1:25" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="8"/>
       <c r="C14" s="9" t="s">
@@ -1137,147 +1633,357 @@
       </c>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" spans="1:25" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="14"/>
+      <c r="C15" s="21">
+        <v>124750</v>
+      </c>
+      <c r="D15" s="21">
+        <v>499</v>
+      </c>
+      <c r="E15" s="22">
+        <v>0</v>
+      </c>
+      <c r="F15" s="21">
+        <v>499500</v>
+      </c>
+      <c r="G15" s="21">
+        <v>999</v>
+      </c>
+      <c r="H15" s="22">
+        <v>0</v>
+      </c>
+      <c r="I15" s="21">
+        <v>1999000</v>
+      </c>
+      <c r="J15" s="21">
+        <v>1999</v>
+      </c>
+      <c r="K15" s="22">
+        <v>0</v>
+      </c>
+      <c r="L15" s="21">
+        <v>12497500</v>
+      </c>
+      <c r="M15" s="21">
+        <v>4999</v>
+      </c>
+      <c r="N15" s="22">
+        <v>0.3125</v>
+      </c>
+      <c r="O15" s="25">
+        <v>49995000</v>
+      </c>
+      <c r="P15" s="21">
+        <v>9999</v>
+      </c>
+      <c r="Q15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R15" s="25">
+        <v>199990000</v>
+      </c>
+      <c r="S15" s="25">
+        <v>19999</v>
+      </c>
+      <c r="T15" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U15" s="25">
+        <v>1249975000</v>
+      </c>
+      <c r="V15" s="25">
+        <v>49999</v>
+      </c>
+      <c r="W15" s="26">
+        <v>2890625</v>
+      </c>
       <c r="X15" s="1"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="14"/>
+      <c r="C16" s="21">
+        <v>16656</v>
+      </c>
+      <c r="D16" s="21">
+        <v>16657</v>
+      </c>
+      <c r="E16" s="22">
+        <v>0</v>
+      </c>
+      <c r="F16" s="21">
+        <v>62480</v>
+      </c>
+      <c r="G16" s="21">
+        <v>62481</v>
+      </c>
+      <c r="H16" s="22">
+        <v>0</v>
+      </c>
+      <c r="I16" s="21">
+        <v>256092</v>
+      </c>
+      <c r="J16" s="21">
+        <v>256093</v>
+      </c>
+      <c r="K16" s="22">
+        <v>0</v>
+      </c>
+      <c r="L16" s="21">
+        <v>1588852</v>
+      </c>
+      <c r="M16" s="21">
+        <v>1588853</v>
+      </c>
+      <c r="N16" s="22">
+        <v>0</v>
+      </c>
+      <c r="O16" s="25">
+        <v>6290832</v>
+      </c>
+      <c r="P16" s="21">
+        <v>6290833</v>
+      </c>
+      <c r="Q16" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="R16" s="25">
+        <v>24880059</v>
+      </c>
+      <c r="S16" s="25">
+        <v>24880060</v>
+      </c>
+      <c r="T16" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="U16" s="25">
+        <v>156201014</v>
+      </c>
+      <c r="V16" s="25">
+        <v>156201015</v>
+      </c>
+      <c r="W16" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="14"/>
+      <c r="C17" s="21">
+        <v>2939</v>
+      </c>
+      <c r="D17" s="21">
+        <v>8976</v>
+      </c>
+      <c r="E17" s="22">
+        <v>0</v>
+      </c>
+      <c r="F17" s="21">
+        <v>6630</v>
+      </c>
+      <c r="G17" s="21">
+        <v>19952</v>
+      </c>
+      <c r="H17" s="22">
+        <v>0</v>
+      </c>
+      <c r="I17" s="21">
+        <v>14769</v>
+      </c>
+      <c r="J17" s="21">
+        <v>43904</v>
+      </c>
+      <c r="K17" s="22">
+        <v>0</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O17" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="P17" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q17" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="S17" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="T17" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="U17" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="V17" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="W17" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="X17" s="1"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="14"/>
+      <c r="C18" s="21">
+        <v>1927</v>
+      </c>
+      <c r="D18" s="21">
+        <v>4917</v>
+      </c>
+      <c r="E18" s="22">
+        <v>0</v>
+      </c>
+      <c r="F18" s="21">
+        <v>4341</v>
+      </c>
+      <c r="G18" s="21">
+        <v>10894</v>
+      </c>
+      <c r="H18" s="22">
+        <v>0</v>
+      </c>
+      <c r="I18" s="21">
+        <v>9663</v>
+      </c>
+      <c r="J18" s="21">
+        <v>23777</v>
+      </c>
+      <c r="K18" s="22">
+        <v>0</v>
+      </c>
+      <c r="L18" s="21">
+        <v>27102</v>
+      </c>
+      <c r="M18" s="21">
+        <v>66150</v>
+      </c>
+      <c r="N18" s="22">
+        <v>0</v>
+      </c>
+      <c r="O18" s="25">
+        <v>59168</v>
+      </c>
+      <c r="P18" s="21">
+        <v>142471</v>
+      </c>
+      <c r="Q18" s="22">
+        <v>0</v>
+      </c>
+      <c r="R18" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="S18" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="T18" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="U18" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="V18" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="W18" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="X18" s="1"/>
     </row>
-    <row r="19" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="18"/>
+      <c r="C19" s="24">
+        <v>95562</v>
+      </c>
+      <c r="D19" s="24">
+        <v>721</v>
+      </c>
+      <c r="E19" s="23">
+        <v>0</v>
+      </c>
+      <c r="F19" s="24">
+        <v>378726</v>
+      </c>
+      <c r="G19" s="24">
+        <v>1566</v>
+      </c>
+      <c r="H19" s="23">
+        <v>0</v>
+      </c>
+      <c r="I19" s="24">
+        <v>1506928</v>
+      </c>
+      <c r="J19" s="24">
+        <v>3409</v>
+      </c>
+      <c r="K19" s="23">
+        <v>0</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="M19" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="N19" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="O19" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="P19" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q19" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="R19" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="S19" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="T19" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="U19" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="V19" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="W19" s="18" t="s">
+        <v>104</v>
+      </c>
       <c r="X19" s="1"/>
     </row>
-    <row r="20" spans="1:24" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1303,7 +2009,7 @@
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
     </row>
-    <row r="21" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
@@ -1331,7 +2037,7 @@
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
     </row>
-    <row r="22" spans="1:24" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="3" t="s">
@@ -1371,7 +2077,7 @@
       <c r="W22" s="7"/>
       <c r="X22" s="1"/>
     </row>
-    <row r="23" spans="1:24" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="8"/>
       <c r="C23" s="9" t="s">
@@ -1439,147 +2145,357 @@
       </c>
       <c r="X23" s="1"/>
     </row>
-    <row r="24" spans="1:24" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="15"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="15"/>
-      <c r="V24" s="15"/>
-      <c r="W24" s="14"/>
+      <c r="C24" s="21">
+        <v>124750</v>
+      </c>
+      <c r="D24" s="21">
+        <v>499</v>
+      </c>
+      <c r="E24" s="22">
+        <v>0</v>
+      </c>
+      <c r="F24" s="21">
+        <v>499500</v>
+      </c>
+      <c r="G24" s="21">
+        <v>999</v>
+      </c>
+      <c r="H24" s="22">
+        <v>0</v>
+      </c>
+      <c r="I24" s="21">
+        <v>1999000</v>
+      </c>
+      <c r="J24" s="21">
+        <v>1999</v>
+      </c>
+      <c r="K24" s="22">
+        <v>0</v>
+      </c>
+      <c r="L24" s="21">
+        <v>12497500</v>
+      </c>
+      <c r="M24" s="21">
+        <v>4999</v>
+      </c>
+      <c r="N24" s="22">
+        <v>0.3125</v>
+      </c>
+      <c r="O24" s="25">
+        <v>49995000</v>
+      </c>
+      <c r="P24" s="21">
+        <v>9999</v>
+      </c>
+      <c r="Q24" s="22">
+        <v>0.109375</v>
+      </c>
+      <c r="R24" s="25">
+        <v>199990000</v>
+      </c>
+      <c r="S24" s="25">
+        <v>19999</v>
+      </c>
+      <c r="T24" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U24" s="25">
+        <v>1249975000</v>
+      </c>
+      <c r="V24" s="25">
+        <v>49999</v>
+      </c>
+      <c r="W24" s="22">
+        <v>3</v>
+      </c>
       <c r="X24" s="1"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="15"/>
-      <c r="V25" s="15"/>
-      <c r="W25" s="14"/>
+      <c r="C25" s="21">
+        <v>124750</v>
+      </c>
+      <c r="D25" s="21">
+        <v>125250</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="21">
+        <v>499500</v>
+      </c>
+      <c r="G25" s="21">
+        <v>500500</v>
+      </c>
+      <c r="H25" s="22">
+        <v>0</v>
+      </c>
+      <c r="I25" s="21">
+        <v>1999000</v>
+      </c>
+      <c r="J25" s="21">
+        <v>2001000</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="21">
+        <v>12497500</v>
+      </c>
+      <c r="M25" s="21">
+        <v>12502500</v>
+      </c>
+      <c r="N25" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O25" s="25">
+        <v>49995000</v>
+      </c>
+      <c r="P25" s="21">
+        <v>50005000</v>
+      </c>
+      <c r="Q25" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="R25" s="25">
+        <v>199990000</v>
+      </c>
+      <c r="S25" s="25">
+        <v>200010000</v>
+      </c>
+      <c r="T25" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="U25" s="25">
+        <v>1249975000</v>
+      </c>
+      <c r="V25" s="25">
+        <v>1250025000</v>
+      </c>
+      <c r="W25" s="26">
+        <v>3812500</v>
+      </c>
       <c r="X25" s="1"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="15"/>
-      <c r="V26" s="15"/>
-      <c r="W26" s="14"/>
+      <c r="C26" s="21">
+        <v>2216</v>
+      </c>
+      <c r="D26" s="21">
+        <v>8976</v>
+      </c>
+      <c r="E26" s="22">
+        <v>0</v>
+      </c>
+      <c r="F26" s="21">
+        <v>4932</v>
+      </c>
+      <c r="G26" s="21">
+        <v>19952</v>
+      </c>
+      <c r="H26" s="22">
+        <v>0</v>
+      </c>
+      <c r="I26" s="21">
+        <v>10864</v>
+      </c>
+      <c r="J26" s="21">
+        <v>43904</v>
+      </c>
+      <c r="K26" s="22">
+        <v>0</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="N26" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O26" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="P26" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q26" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="R26" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="S26" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="T26" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="U26" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="V26" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="W26" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="X26" s="1"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="15"/>
-      <c r="V27" s="15"/>
-      <c r="W27" s="14"/>
+      <c r="C27" s="21">
+        <v>1802</v>
+      </c>
+      <c r="D27" s="21">
+        <v>4425</v>
+      </c>
+      <c r="E27" s="22">
+        <v>0</v>
+      </c>
+      <c r="F27" s="21">
+        <v>4123</v>
+      </c>
+      <c r="G27" s="21">
+        <v>9815</v>
+      </c>
+      <c r="H27" s="22">
+        <v>0</v>
+      </c>
+      <c r="I27" s="21">
+        <v>9271</v>
+      </c>
+      <c r="J27" s="21">
+        <v>21707</v>
+      </c>
+      <c r="K27" s="22">
+        <v>0</v>
+      </c>
+      <c r="L27" s="21">
+        <v>26244</v>
+      </c>
+      <c r="M27" s="21">
+        <v>60935</v>
+      </c>
+      <c r="N27" s="22">
+        <v>0</v>
+      </c>
+      <c r="O27" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="P27" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q27" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="R27" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="S27" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="T27" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="U27" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="V27" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="W27" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="X27" s="1"/>
     </row>
-    <row r="28" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="18"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
-      <c r="W28" s="18"/>
+      <c r="C28" s="24">
+        <v>125250</v>
+      </c>
+      <c r="D28" s="24">
+        <v>500</v>
+      </c>
+      <c r="E28" s="23">
+        <v>0</v>
+      </c>
+      <c r="F28" s="24">
+        <v>499501</v>
+      </c>
+      <c r="G28" s="24">
+        <v>999</v>
+      </c>
+      <c r="H28" s="23">
+        <v>0</v>
+      </c>
+      <c r="I28" s="24">
+        <v>2001000</v>
+      </c>
+      <c r="J28" s="24">
+        <v>2000</v>
+      </c>
+      <c r="K28" s="23">
+        <v>0</v>
+      </c>
+      <c r="L28" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="M28" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N28" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="O28" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="P28" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q28" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="R28" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="S28" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="T28" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="U28" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="V28" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="W28" s="18" t="s">
+        <v>101</v>
+      </c>
       <c r="X28" s="1"/>
     </row>
-    <row r="29" spans="1:24" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1605,7 +2521,7 @@
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
     </row>
-    <row r="30" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
@@ -1633,7 +2549,7 @@
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
     </row>
-    <row r="31" spans="1:24" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="3" t="s">
@@ -1673,7 +2589,7 @@
       <c r="W31" s="7"/>
       <c r="X31" s="1"/>
     </row>
-    <row r="32" spans="1:24" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="8"/>
       <c r="C32" s="9" t="s">
@@ -1741,147 +2657,357 @@
       </c>
       <c r="X32" s="1"/>
     </row>
-    <row r="33" spans="1:24" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="15"/>
-      <c r="S33" s="15"/>
-      <c r="T33" s="14"/>
-      <c r="U33" s="15"/>
-      <c r="V33" s="15"/>
-      <c r="W33" s="14"/>
+      <c r="C33" s="21">
+        <v>124750</v>
+      </c>
+      <c r="D33" s="21">
+        <v>499</v>
+      </c>
+      <c r="E33" s="22">
+        <v>0</v>
+      </c>
+      <c r="F33" s="21">
+        <v>499500</v>
+      </c>
+      <c r="G33" s="21">
+        <v>999</v>
+      </c>
+      <c r="H33" s="22">
+        <v>0</v>
+      </c>
+      <c r="I33" s="21">
+        <v>1999000</v>
+      </c>
+      <c r="J33" s="21">
+        <v>1999</v>
+      </c>
+      <c r="K33" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" s="21">
+        <v>12497500</v>
+      </c>
+      <c r="M33" s="21">
+        <v>4999</v>
+      </c>
+      <c r="N33" s="22">
+        <v>0.3125</v>
+      </c>
+      <c r="O33" s="25">
+        <v>49995000</v>
+      </c>
+      <c r="P33" s="21">
+        <v>9999</v>
+      </c>
+      <c r="Q33" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R33" s="25">
+        <v>199990000</v>
+      </c>
+      <c r="S33" s="25">
+        <v>19999</v>
+      </c>
+      <c r="T33" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U33" s="25">
+        <v>1249975000</v>
+      </c>
+      <c r="V33" s="25">
+        <v>49999</v>
+      </c>
+      <c r="W33" s="26">
+        <v>2890625</v>
+      </c>
       <c r="X33" s="1"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="15"/>
-      <c r="S34" s="15"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="15"/>
-      <c r="V34" s="15"/>
-      <c r="W34" s="14"/>
+      <c r="C34" s="21">
+        <v>62447</v>
+      </c>
+      <c r="D34" s="21">
+        <v>62452</v>
+      </c>
+      <c r="E34" s="22">
+        <v>0</v>
+      </c>
+      <c r="F34" s="21">
+        <v>250606</v>
+      </c>
+      <c r="G34" s="21">
+        <v>250618</v>
+      </c>
+      <c r="H34" s="22">
+        <v>0</v>
+      </c>
+      <c r="I34" s="21">
+        <v>982635</v>
+      </c>
+      <c r="J34" s="21">
+        <v>982642</v>
+      </c>
+      <c r="K34" s="22">
+        <v>0</v>
+      </c>
+      <c r="L34" s="21">
+        <v>6311759</v>
+      </c>
+      <c r="M34" s="21">
+        <v>6311768</v>
+      </c>
+      <c r="N34" s="22">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="O34" s="25">
+        <v>25141388</v>
+      </c>
+      <c r="P34" s="21">
+        <v>25141398</v>
+      </c>
+      <c r="Q34" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="R34" s="25">
+        <v>100339745</v>
+      </c>
+      <c r="S34" s="25">
+        <v>100339751</v>
+      </c>
+      <c r="T34" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="U34" s="25">
+        <v>622943445</v>
+      </c>
+      <c r="V34" s="25">
+        <v>622943456</v>
+      </c>
+      <c r="W34" s="26">
+        <v>1890625</v>
+      </c>
       <c r="X34" s="1"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="15"/>
-      <c r="S35" s="15"/>
-      <c r="T35" s="14"/>
-      <c r="U35" s="15"/>
-      <c r="V35" s="15"/>
-      <c r="W35" s="14"/>
+      <c r="C35" s="21">
+        <v>3861</v>
+      </c>
+      <c r="D35" s="21">
+        <v>8976</v>
+      </c>
+      <c r="E35" s="22">
+        <v>0</v>
+      </c>
+      <c r="F35" s="21">
+        <v>8690</v>
+      </c>
+      <c r="G35" s="21">
+        <v>19952</v>
+      </c>
+      <c r="H35" s="22">
+        <v>0</v>
+      </c>
+      <c r="I35" s="21">
+        <v>19397</v>
+      </c>
+      <c r="J35" s="21">
+        <v>43904</v>
+      </c>
+      <c r="K35" s="22">
+        <v>0</v>
+      </c>
+      <c r="L35" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="M35" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="N35" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O35" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="P35" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q35" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="R35" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="S35" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="T35" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="U35" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="V35" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="W35" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="X35" s="1"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="14"/>
-      <c r="R36" s="15"/>
-      <c r="S36" s="15"/>
-      <c r="T36" s="14"/>
-      <c r="U36" s="15"/>
-      <c r="V36" s="15"/>
-      <c r="W36" s="14"/>
+      <c r="C36" s="21">
+        <v>1950</v>
+      </c>
+      <c r="D36" s="21">
+        <v>4765</v>
+      </c>
+      <c r="E36" s="22">
+        <v>0</v>
+      </c>
+      <c r="F36" s="21">
+        <v>4438</v>
+      </c>
+      <c r="G36" s="21">
+        <v>10551</v>
+      </c>
+      <c r="H36" s="22">
+        <v>0</v>
+      </c>
+      <c r="I36" s="21">
+        <v>9833</v>
+      </c>
+      <c r="J36" s="21">
+        <v>23113</v>
+      </c>
+      <c r="K36" s="22">
+        <v>0</v>
+      </c>
+      <c r="L36" s="21">
+        <v>27618</v>
+      </c>
+      <c r="M36" s="21">
+        <v>64663</v>
+      </c>
+      <c r="N36" s="22">
+        <v>0</v>
+      </c>
+      <c r="O36" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="P36" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q36" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="R36" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="S36" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="T36" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="U36" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="V36" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="W36" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="X36" s="1"/>
     </row>
-    <row r="37" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="18"/>
-      <c r="R37" s="19"/>
-      <c r="S37" s="19"/>
-      <c r="T37" s="18"/>
-      <c r="U37" s="19"/>
-      <c r="V37" s="19"/>
-      <c r="W37" s="18"/>
+      <c r="C37" s="24">
+        <v>3712</v>
+      </c>
+      <c r="D37" s="24">
+        <v>1052</v>
+      </c>
+      <c r="E37" s="23">
+        <v>0</v>
+      </c>
+      <c r="F37" s="24">
+        <v>6848</v>
+      </c>
+      <c r="G37" s="24">
+        <v>2379</v>
+      </c>
+      <c r="H37" s="23">
+        <v>0</v>
+      </c>
+      <c r="I37" s="24">
+        <v>19479</v>
+      </c>
+      <c r="J37" s="24">
+        <v>5265</v>
+      </c>
+      <c r="K37" s="23">
+        <v>0</v>
+      </c>
+      <c r="L37" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="M37" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="N37" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="O37" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="P37" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q37" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="R37" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="S37" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="T37" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="U37" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="V37" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="W37" s="18" t="s">
+        <v>19</v>
+      </c>
       <c r="X37" s="1"/>
     </row>
-    <row r="38" spans="1:24" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1909,7 +3035,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1919,7 +3045,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1931,7 +3057,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
